--- a/xlsx/country_comparison/my_tax_global_nation_positive.xlsx
+++ b/xlsx/country_comparison/my_tax_global_nation_positive.xlsx
@@ -419,34 +419,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.331244587143468</v>
+        <v>0.332422479971168</v>
       </c>
       <c r="C2" t="n">
-        <v>0.472347303110019</v>
+        <v>0.454141033723848</v>
       </c>
       <c r="D2" t="n">
-        <v>0.509812653463834</v>
+        <v>0.487737430967048</v>
       </c>
       <c r="E2" t="n">
-        <v>0.193619361936194</v>
+        <v>0.310157409637974</v>
       </c>
       <c r="F2" t="n">
-        <v>0.472049841034071</v>
+        <v>0.422786433745138</v>
       </c>
       <c r="G2" t="n">
-        <v>0.710518236650029</v>
+        <v>0.674904710889765</v>
       </c>
       <c r="H2" t="n">
-        <v>0.428741589304639</v>
+        <v>0.495659141418139</v>
       </c>
       <c r="I2" t="n">
-        <v>0.44027163187825</v>
+        <v>0.429939289235026</v>
       </c>
       <c r="J2" t="n">
-        <v>0.438108978918754</v>
+        <v>0.451766863491668</v>
       </c>
       <c r="K2" t="n">
-        <v>0.480929004891075</v>
+        <v>0.409474299242273</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/my_tax_global_nation_positive.xlsx
+++ b/xlsx/country_comparison/my_tax_global_nation_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -26,25 +32,25 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
+    <t xml:space="preserve">USA</t>
   </si>
   <si>
     <t xml:space="preserve">"My taxes should go towards solving global problems"</t>
@@ -413,40 +419,52 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.332422479971168</v>
+        <v>0.414163491723958</v>
       </c>
       <c r="C2" t="n">
-        <v>0.454141033723848</v>
+        <v>0.439007996245569</v>
       </c>
       <c r="D2" t="n">
-        <v>0.487737430967048</v>
+        <v>0.323193155043108</v>
       </c>
       <c r="E2" t="n">
-        <v>0.310157409637974</v>
+        <v>0.444463951462934</v>
       </c>
       <c r="F2" t="n">
-        <v>0.422786433745138</v>
+        <v>0.518235877111197</v>
       </c>
       <c r="G2" t="n">
-        <v>0.674904710889765</v>
+        <v>0.41082014424506</v>
       </c>
       <c r="H2" t="n">
-        <v>0.495659141418139</v>
+        <v>0.500549487362927</v>
       </c>
       <c r="I2" t="n">
-        <v>0.429939289235026</v>
+        <v>0.453356423772496</v>
       </c>
       <c r="J2" t="n">
-        <v>0.451766863491668</v>
+        <v>0.387974052023334</v>
       </c>
       <c r="K2" t="n">
-        <v>0.409474299242273</v>
+        <v>0.320880464197663</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.665815836537034</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.400486748191</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/my_tax_global_nation_positive.xlsx
+++ b/xlsx/country_comparison/my_tax_global_nation_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -425,13 +428,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.414163491723958</v>
+        <v>0.411487229771989</v>
       </c>
       <c r="C2" t="n">
         <v>0.439007996245569</v>
@@ -461,9 +467,12 @@
         <v>0.320880464197663</v>
       </c>
       <c r="L2" t="n">
+        <v>0.395065353407928</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.665815836537034</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.400486748191</v>
       </c>
     </row>

--- a/xlsx/country_comparison/my_tax_global_nation_positive.xlsx
+++ b/xlsx/country_comparison/my_tax_global_nation_positive.xlsx
@@ -437,7 +437,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.411487229771989</v>
+        <v>0.410626908494325</v>
       </c>
       <c r="C2" t="n">
         <v>0.439007996245569</v>
@@ -464,16 +464,16 @@
         <v>0.387974052023334</v>
       </c>
       <c r="K2" t="n">
-        <v>0.320880464197663</v>
+        <v>0.32098402394466</v>
       </c>
       <c r="L2" t="n">
-        <v>0.395065353407928</v>
+        <v>0.389807639671357</v>
       </c>
       <c r="M2" t="n">
         <v>0.665815836537034</v>
       </c>
       <c r="N2" t="n">
-        <v>0.400486748191</v>
+        <v>0.400110573948723</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/my_tax_global_nation_positive.xlsx
+++ b/xlsx/country_comparison/my_tax_global_nation_positive.xlsx
@@ -437,7 +437,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.410626908494325</v>
+        <v>0.410629863862209</v>
       </c>
       <c r="C2" t="n">
         <v>0.439007996245569</v>
@@ -467,7 +467,7 @@
         <v>0.32098402394466</v>
       </c>
       <c r="L2" t="n">
-        <v>0.389807639671357</v>
+        <v>0.389828757171604</v>
       </c>
       <c r="M2" t="n">
         <v>0.665815836537034</v>
